--- a/ebay_products.xlsx
+++ b/ebay_products.xlsx
@@ -487,221 +487,221 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SGIN Laptop 15.6"" 4GB DDR4 Memory 128GB SSD Webcam Type-C Mini HDMI WiFi Sliver</t>
+          <t>Cheap Fast Windows 10 Laptop CORE i5 8GB RAM 256GB SSD WIFI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5,007,180.77 VND</t>
+          <t>2,648,591.96 VND to 2,979,707.35 VND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/1xkAAOSwAg1mTUzq/s-l500.jpg</t>
+          <t>https://i.ebayimg.com/images/g/yGIAAOSwTkpkkZ9R/s-l500.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SGIN 15.6"" Laptop 8GB 256GB SSD Computer Intel Qaud-Core Wi-Fi Mini HDMi</t>
+          <t>Dell Latitude 7400 Touch Laptop 14" FHD Intel Core i5 16GB 256GB SSD Windows 11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5,286,911.54 VND</t>
+          <t>6,237,692.31 VND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/85gAAOSw14dmXa2x/s-l500.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ShQAAOSw5ptmmf8i/s-l500.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cheap Fast Windows 10 Laptop CORE i5 8GB RAM 256GB SSD WIFI</t>
+          <t>SUPER FAST WINDOWS 11 CHEAP LAPTOP INTEL CORE I5 4/8/16GB RAM 1TB HDD SSD WEBCAM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2,664,179.76 VND to 2,997,243.86 VND</t>
+          <t>3,310,822.73 VND to 6,953,091.96 VND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/yGIAAOSwTkpkkZ9R/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rNIAAOSwY09k-0X8/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUPER FAST WINDOWS 11 CHEAP LAPTOP INTEL CORE I5 4/8/16GB RAM 1TB HDD SSD WEBCAM</t>
+          <t>Cheap Gaming Laptop Fast RYZEN 5 16GB RAM 256GB SSD 13.3 FHD Win11 Vega 8 PC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3,330,307.96 VND to 6,994,013.09 VND</t>
+          <t>8,575,888.46 VND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/rNIAAOSwY09k-0X8/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/sdIAAOSwZPVmgvYO/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Windows 11 Laptop Dell Latitude HD Intel Core i5 8th Gen 8GB 256GB SSD Warranty</t>
+          <t>Dell Latitude 5420 Laptop Intel Core i5 11th Gen 8GB RAM 256GB SSD Windows 11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4,496,032.32 VND</t>
+          <t>6,922,820.51 VND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VRYAAOSwv1tmkTfS/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/0gAAAOSw25BmmFVX/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cheap iCore Laptop Lenovo HP Dell Core i3 i5 8GB RAM 128 GB SSD Windows 10 Win</t>
+          <t>HP ProBook Laptop 650G1 Intel i5-4210M 2.5GHz 8GB 500GB HDD Windows 11 Nr2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,997,243.86 VND</t>
+          <t>1,576,929.49 VND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/W7gAAOSw89pmcuCt/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/H2wAAOSw265mkjCU/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Windows 11 Cheap Laptop Dell Latitude Intel Core i5 6th Gen 8GB 128GB SSD</t>
+          <t>Dell Latitude 15" Core i5 Laptop PC Computer Windows 10 16GB RAM 256GB SSD WiFi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3,996,436.17 VND</t>
+          <t>5,384,358.97 VND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/uyEAAOSwgodmjo7D/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rHwAAOSwzGFmm3nJ/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FAST CHEAP CORE i5 LAPTOP 1TB SSD 32GB RAM WARRANTY FREE WINDOWS 11 UPGRADE</t>
+          <t>15.6" HP ProBook Laptop PC: Intel i7! 16GB RAM! 1TB SSD! Windows 10 Pro! Webcam!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4,329,500.27 VND to 9,991,590.01 VND</t>
+          <t>6,408,974.36 VND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/jCwAAOSwGyxkxUwI/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/miUAAOSwj6NmexRC/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>New ListingDell Precision 5520 Intel Core I7-6820HQ 8GB 250GB SSD + Microsoft 365 Unlimited</t>
+          <t>Laptop HP Windows 11 CORE i5 GEN 6-8 TH 32GB RAM 1TB SSD WEBCAM WIFI DELL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7,327,410.26 VND</t>
+          <t>3,973,053.50 VND to 14,899,861.19 VND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ryUAAOSwUc5miCj9/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/onIAAOSw17hk3WLf/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Laptop HP Windows 11 CORE i5 GEN 6-8 TH 32GB RAM 1TB SSD WEBCAM WIFI DELL</t>
+          <t>Lenovo Yoga 11e 2-in-1 Touch Laptop 11.6" Windows 10 Pentium 4GB RAM 256GB SSD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3,996,436.17 VND to 14,987,551.55 VND</t>
+          <t>2,179,230.77 VND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/onIAAOSw17hk3WLf/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/XpUAAOSwEsdmjMf7/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Huawei MateBook 13" 2K Fullview Laptop (256GB) [Ryzen 5]</t>
+          <t>FAST CHEAP CORE i5 LAPTOP 1TB SSD 32GB RAM WARRANTY FREE WINDOWS 11 UPGRADE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1,061,233.27 VND</t>
+          <t>4,304,168.88 VND to 9,933,130.42 VND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/I08AAOSwpexmfnJq/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/jCwAAOSwGyxkxUwI/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Windows 11 PRO ,15.6" GAMING ,8GB RAM+256GB SSD,Intel Celeron 5205U,1.9GHZ NEW</t>
+          <t>Lenovo Touchscreen 2-in-1 11.6" Laptop PC Intel 4GB RAM 64GB SSD Windows 10 WiFi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3,717,948.72 VND</t>
+          <t>1,922,820.51 VND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/iG0AAOSwHMdmarNL/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/wn0AAOSwvFtmjhiZ/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Windows 11 Laptop Dell Latitude HD Intel Core i5 7th Gen 8GB 256GB SSD Warranty</t>
+          <t>Dell G15 5511 Gaming Laptop; i7-11800, RTX 3060 (6GB), 32GB DDR4, 2TB SSD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4,329,500.27 VND</t>
+          <t>10,641,025.64 VND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/uCcAAOSwx-pmkTPg/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/45oAAOSwhH1mijXo/s-l140.jpg</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,662,564.37 VND to 8,492,801.55 VND</t>
+          <t>4,635,284.27 VND to 8,443,111.19 VND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,1037 +725,1037 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Getac S410 Rugged Toughbook Laptop i5-6300U Windows 10 Pro Upto 16 Gb 2 Tb Ssd</t>
+          <t>Getac V200 Rugged Toughbook Style Laptop 12.1" Core i5, SSD, Serial, Windows 10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6,660,948.99 VND to 13,155,698.99 VND</t>
+          <t>6,621,976.58 VND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/gZAAAOSwHjlmK4Ip/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/vCEAAOSw395l7cta/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DELL XPS 13 9370 Laptop I7-8550U 16GB RAM 512GB SSD Windows 10 Pro GRADE A</t>
+          <t>New ListingASUS TUF Gaming Laptop 16GB 500GB Ryzen 9 4900H Memory</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9,991,590.01 VND</t>
+          <t>13,955,128.21 VND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/aUkAAOSwwjxmjlTh/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/~KEAAOSws35mnR2n/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Windows 11 Laptop HP Elitebook 840 G5 8th Gen 1.70 Ghz 8GB DDR4 256GB SSD HDMI</t>
+          <t>~CLEARANCE~ 15.6 Lenovo ThinkPad Laptop: 16GB RAM! 256GB SSD! Windows 10 Pro!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5,994,820.78 VND</t>
+          <t>4,870,512.82 VND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/-isAAOSw6mpmi3L~/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/56UAAOSw8v9ma0Y0/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>New ListingHP ProBook Laptop 650G1 Intel i5-4210M 2.5GHz 8GB 500GB HDD Windows 11 Pro</t>
+          <t>Cheap iCore Laptop Lenovo HP Dell Core i3 i5 8GB RAM 128 GB SSD Windows 10 Win</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3,108,088.58 VND</t>
+          <t>3,045,930.42 VND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/H2wAAOSw265mkjCU/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/W7gAAOSw89pmcuCt/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New ListingHP Victus 15.6" Gaming Laptop - RTX 3050 Intel i5-12650H 2.5GHz 16GB Ram 512G...</t>
+          <t xml:space="preserve">New ListingHP 15-bs2xx Touchscreen, 15.6" - 16gb RAM/1tb HDD - Microsoft Office Pro </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6,166,666.67 VND</t>
+          <t>3,333,333.33 VND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/4o4AAOSwTEtmgE4Z/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/DTEAAOSwWZtmn0nZ/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEAP FAST Major Brand Windows 11 Laptop i3 i5 i7 6th 32GB RAM 1TB SSD WIFI</t>
+          <t>Dell Precision 3551 Laptop Light Gaming PC Core i5 16GB RAM 256GB SSD Windows 11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3,330,307.96 VND to 6,994,013.09 VND</t>
+          <t>7,234,358.97 VND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/rf0AAOSwQopkq-Cu/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/--8AAOSwZupmmfq2/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkPad X380 Yoga Intel Core I5-8350U 8GB 13.3" FHD Notebook </t>
+          <t>New ListingDell Precision 7540 15.6" Core i7-9750H 2.60GHz 8GB 256GB SSD W11 Laptop (A3608)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,915,951.04 VND</t>
+          <t>3,075,641.03 VND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VJ0AAOSwOMZmYcrc/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/OjoAAOSw-WNmkFJE/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Let's Note CF-SZ6Z16VS Core i7-7600U Memory 16GB SSD 512GB D2D JAPAN USED</t>
+          <t>Dell 15.6" NVIDIA Gaming Laptop - Intel Quad Core i7 64GB RAM 4TB SSD Windows 11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6,512,051.28 VND</t>
+          <t>11,615,384.62 VND to 22,974,358.97 VND</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/LhcAAOSwyl9lp1sV/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/9x4AAOSwVAlmICu5/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LENOVO IdeaPad 3i 15.6" Laptop - Intel Core i7 8GB RAM 512 GB SSD Blue</t>
+          <t>Windows 11 Cheap Laptop Dell Latitude Intel Core i5 6th Gen 8GB 128GB SSD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5,192,307.69 VND</t>
+          <t>3,741,272.73 VND</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/wzIAAOSwUc1mjBfJ/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/uyEAAOSwgodmjo7D/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VAIO VJPG11C11N Sony Core i5 8250U 1.8Ghz RAM 8GB SSD 256GB USED</t>
+          <t>Dell Laptop Touchscreen 2-in-1 PC 11.6" LED Celeron 8GB RAM 128GB SSD Windows 10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4,307,692.31 VND</t>
+          <t>2,820,256.41 VND</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ol4AAOSwMrlmbvxr/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/pE0AAOSwpLZmjOmo/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cheap Gaming Laptop Fast RYZEN 5 16GB RAM 256GB SSD 13.3 FHD Win11 Vega 8 GPU PC</t>
+          <t>Acer Nitro V - 15.6" Laptop Intel Core i7-13620H 2.40GHz 16GB RAM 512GB SSD W11H</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7,627,167.95 VND</t>
+          <t>16,922,820.51 VND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/I-kAAOSwMihmgvZu/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/7MkAAOSwg-lmlhRL/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Microsoft Surface Book Intel i5 8GB RAM - 128GB SSD Keyboard  Win11 - Read desc.</t>
+          <t>Cheap Gaming Laptop Fast RYZEN 5 16GB RAM 256GB SSD 13.3 FHD Win11 Vega 8 GPU PC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3,164,108.97 VND</t>
+          <t>7,582,542.31 VND</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ok4AAOSwFwBhgp2R/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/I-kAAOSwMihmgvZu/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VAIO VJPG11C11N Sony Core i5 8250U 1.8Ghz RAM 8GB SSD 256GB Used Tested</t>
+          <t>New Listinglot of 3 HP Elitebook laptops 2560P windows 10 pro 250GB SSD 16GB PC3L</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4,615,128.21 VND</t>
+          <t>1,281,794.87 VND</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ppwAAOSwvf5mkH4l/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/gQUAAOSwkiRl15uF/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MSI Stealth 15M Gaming Laptop (Core i7 11375/16GB/RTX 3060/512GB M.2/FHD/144Hz)</t>
+          <t>Lenovo ThinkPad L14 14” FHD Laptop AMD Ryzen 5 PRO 16GB RAM 512GB SSD Windows 10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17,948,461.54 VND</t>
+          <t>6,153,589.74 VND</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5r0AAOSwduRmBoZS/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/1fMAAOSwMBhmMQfq/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HP windows 7 laptop 1.7Ghz 1GB 2GB 60GB 15" Screen WIFI DVD Webcam Case</t>
+          <t>15.6" Lenovo ThinkPad Laptop PC: Intel i5! 16GB RAM! 512 SSD! Windows 10! Webcam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3,938,149.95 VND to 5,882,245.12 VND</t>
+          <t>5,897,179.49 VND</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/xTgAAOSwaB5Xq3Ls/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/aFMAAOSwS4dmT5XL/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WINDOWS 11 LAPTOP INTEL J 15" HD 8GB RAM 128GB SSD USB 3.0 WEBCAM LIGHTWEIGHT</t>
+          <t>Dell Latitude Laptop PC 14" FHD Core i5 16GB RAM 256GB SSD Windows 11 Pro HDMI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3,829,904.12 VND</t>
+          <t>6,410,000.00 VND</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/C1gAAOSwNxxmhG3m/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/2a8AAOSw4MhmmE10/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T480s Core i5-8250U 32GB Ram 1TB SSD FHD Windows 11 Fast Laptop</t>
+          <t>LENOVO MIIX 700 WINDOWS 11 LAPTOP TABLET INTEL M5 TOUCH 128GB SSD DETATCHABLE HD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6,660,948.99 VND to 8,992,397.71 VND</t>
+          <t>3,807,495.81 VND</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/4sEAAOSwF~9minxS/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/bp4AAOSwO~JmNLff/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEAP FAST Top Brand Windows 10/11 Laptop i3/i5 32GB Ram 256GB SSD/ 1TB SSD WIFI</t>
+          <t>Laptop Dell Latitude 7420 i5-1145G7 8/16GB RAM 256/512GB SSD Windows11 Pro, VG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2,997,243.86 VND to 10,990,782.32 VND</t>
+          <t>10,397,023.08 VND</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ga0AAOSwwnVj-hGL/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/i~IAAOSw4YVmdXWr/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>New ListingPANASONIC TOUGHBOOK CF-D1N MK3 i5-6300U 3GHz TURBO 16GB 512GB SSD XENTRY TABLET</t>
+          <t>Acer Nitro 5 - 15.6" Laptop Intel Core i7-12650H 2.20GHz 16GB RAM 1TB SSD W11H</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>32,973.35 VND</t>
+          <t>16,666,410.26 VND</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/M4gAAOSwtYJl3c2p/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/sNcAAOSwly1lO0~B/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cheap Gaming Laptop Fast RYZEN 5 16GB RAM 256GB SSD 13.3 FHD Win11 Vega 8 GPU PC</t>
+          <t>HP Laptop 15-fc0093dx 15.6" Ryzen 5 7520U 16GB DDR5 256GB SSD Windows 11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7,627,167.95 VND</t>
+          <t>7,665,128.21 VND</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/8WcAAOSwzbtmdUkb/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/DUQAAOSwXuVmmzmd/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apolosign NJP1561P Space Grey 15.6 Inch Display Windows 11 Home Laptop 512GB</t>
+          <t>CHEAP FAST Major Brand Windows 11 Laptop i3 i5 i7 6th 32GB RAM 1TB SSD WIFI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3,076,666.67 VND</t>
+          <t>3,310,822.73 VND to 5,794,188.12 VND</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/7lIAAOSwmhJl4xLi/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rf0AAOSwQopkq-Cu/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Microsoft Surface Laptop 3 15" |i7-1065G7| 32GB RAM| NO SSD | BROKEN SCREEN Qβ L</t>
+          <t>Acer Swift Edge - 16" Laptop AMD Ryzen 7 7735U 2.7GHz 16GB RAM 1TB SSD W11H</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1,712,853.33 VND</t>
+          <t>13,333,076.92 VND</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VmcAAOSw6vFmfFoY/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/TQ0AAOSwaeFl4kuQ/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HP Pro X2 612 G2 Tablet PENTIUM GOLD 4GB RAM 128GB SSD Windows 11 Pro Grade A+</t>
+          <t>Microsoft Surface Book 2 13.5" Intel Core i7 8650U 1.90Ghz 16GB RAM 512GB SSD Wi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2,997,576.92 VND</t>
+          <t>7,985,025.64 VND</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/rN8AAOSwSqVmD7eh/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/UBkAAOSw1cJmS8Ot/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Microsoft Surface Laptop 4 15" i7-1185g7 3GHz 16GB 256GB Open Box</t>
+          <t>Acer Aspire 3 - 15.6" Laptop AMD Ryzen 5 7520U 2.80GHz 8GB RAM 512GB SSD W11H</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11,794,615.38 VND</t>
+          <t>6,666,410.26 VND</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/SP4AAOSwVO1mFqU3/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ZKkAAOSwAOdl72tn/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HP 250 G9 15.6  Full HD IPS Intel Core i5-1235U 16GB RAM 512GB SSD Notebook Dark</t>
+          <t>Dell Latitude 13.3" Laptop Computer Intel Core 8GB RAM 128GB SSD WiFi Windows 10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10,256,153.85 VND</t>
+          <t>3,079,743.59 VND</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/onkAAOSwwlNmb8t9/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/nDcAAOSwOMZmZ~vo/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cheap Fast Dual Core Windows 10 Laptop 4GB 240GB WIFI</t>
+          <t>HP Pro X2 612 G2 Tablet PENTIUM GOLD 4GB RAM 128GB SSD Windows 11 Pro Grade A+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2,364,422.06 VND to 2,997,243.86 VND</t>
+          <t>2,980,038.46 VND</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Ip4AAOSwDXJjSULp/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rN8AAOSwSqVmD7eh/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dell laptop Latitude 7480 14" i5 2.60GHz 16GB NEW 512GB SSD Win 11 Pro WIFI cam</t>
+          <t>Lenovo LOQ 15.6" FHD 144Hz Gaming Laptop i5-12450HX 12GB RAM 512GB SSD RTX 3050</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5,578,205.13 VND</t>
+          <t>15,384,358.97 VND</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5JQAAOSwZ15mh4Dg/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/KeEAAOSw~gFmQyw7/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>New ListingLenova 14 IdeaPad Laptop</t>
+          <t>Lenovo ThinkPad T480 Laptop Intel Core i5-8350U 16GB Ram 256GB SSD 14" FHD W11P</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2,564,102.56 VND</t>
+          <t>5,256,153.85 VND</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/MpsAAOSwgRNmkzse/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/kzEAAOSwh~BlVWYn/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cheap Gaming Laptop Fast RYZEN 5 16GB RAM 256GB SSD 13.3 FHD Win11 Vega 8 PC</t>
+          <t>CHUWI CoreBook X Laptop Core i5 Light Gaming Business 8GB RAM 512GB SSD Win 11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8,626,360.26 VND</t>
+          <t>5,095,128.21 VND</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/sdIAAOSwZPVmgvYO/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/zGwAAOSwcItmDSxn/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HP 17.3 HD+ TouchScreen Laptop Intel N4120 QuadCore 2.60GHz 128GB SSD Windows 11</t>
+          <t>Apolosign NJP1561P Space Grey 15.6 Inch Display Windows 11 Home Laptop 512GB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7,377,435.90 VND to 7,633,846.15 VND</t>
+          <t>2,768,974.36 VND</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nk0AAOSwwxFl3R-M/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/7lIAAOSwmhJl4xLi/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lenovo 100E 2nd Gen Laptop, 11.6" HD Screen, Celeron N4120, 4GB RAM, 64GB eMMC</t>
+          <t>Dell Latitude 3190 11.6" Touchscreen Laptop Windows 10 Pentium 8GB RAM 128GB SSD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3,327,310.38 VND</t>
+          <t>2,820,256.41 VND</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VNQAAOSwyWVmdWvL/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/JRQAAOSwywVmcGMK/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fast Cheap Gaming Laptop Intel i7 3.20 GHz 500GB SSD Win11 Pro 16GB RAM Computer</t>
+          <t>Dell Latitude 7390 Laptop PC 13" Intel Core i5 8GB RAM 256GB SSD Windows 11 HDMI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5,961,847.44 VND</t>
+          <t>5,127,948.72 VND</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5oEAAOSwN5lmNNx0/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/qpcAAOSw7dJmjhRq/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024 Dell Inspiron 15 Laptop FHD Touch Intel i5 Upto 32GB RAM&amp;1TB SSD Win 11 Pro</t>
+          <t>2023 HP 17-cn3053cl 17.3" IPS FHD Laptop Intel Core i5-1335U 12GB 512GB SSD W11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11,512,820.51 VND to 15,358,974.36 VND</t>
+          <t>8,948,717.95 VND</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/X9YAAOSwq~RlqvMr/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/490AAOSwcxZmUPAU/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Microsoft Surface Laptop 4 13.5" Touch Intel i5 16GB 512GB Win 11 Black Cert</t>
+          <t>Acer Aspire 3 - 15.6" Laptop AMD Ryzen 3 7320U 2.40GHz 8GB RAM 128GB SSD W11H S</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12,820,256.41 VND</t>
+          <t>5,127,948.72 VND</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ODEAAOSwEO5mdDHr/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/8n4AAOSwH81lJ4QH/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>New HP Laptop 14" HD Intel Celeron N4120 4GB 64GB eMMC SSD Webcam Windows 11 S</t>
+          <t>HP 17.3  FHD Notebook AMD Ryzen 5 5500U 8GB RAM 256GB SSD Natural Silver 17-cp00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4,796,410.26 VND</t>
+          <t>8,717,692.31 VND</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/cJoAAOSwIU9lV9Hz/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/wrQAAOSwGSBmdlyh/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Double Screen Laptop 16in Main Screen 14in Touch Sub Screen For CoreI7 TPG</t>
+          <t>Dell laptop Latitude 7480 14" i5 2.60GHz 16GB NEW 512GB SSD Win 11 Pro WIFI cam</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14,005,345.51 VND</t>
+          <t>5,578,205.13 VND</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/o3EAAOSw-M9lCU4S/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/5JQAAOSwZ15mh4Dg/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ASUS Vivobook 15 Laptop (Core i3 1215U/16GB/Intel UHD Graphics/512GB/15.6" FHD)</t>
+          <t>15.6" Lenovo ThinkPad Gaming Laptop PC: Intel i7 Quad Core! 16GB RAM! 1TB SSD!</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7,179,230.77 VND</t>
+          <t>8,203,846.15 VND</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/zrgAAOSwMTRmQc66/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rPcAAOSwvbFmkXBN/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GAMING LENOVO LAPTOP FAST i7 32GB RAM 512GB SSD WINDOWS 10/11 NVIDIA 15.6" FHD</t>
+          <t>Lenovo Thinkpad X390 Yoga 13.3" 2in1 TOUCH i5-8365U 256GB SSD 8GB Win 10 Laptop</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8,992,397.71 VND to 12,323,038.73 VND</t>
+          <t>5,127,948.72 VND</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/mr8AAOSwTOFkfb7H/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/INoAAOSw6G9mhE7R/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HP 15-fd0629ds 15in Laptop Intel N100 4gb MEM 128gb SSD Win11</t>
+          <t>Google Pixelbook Go Laptop Touch ChromeBook i5 Turbo 3.9GHz 16GB with Playstore</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5,384,358.97 VND</t>
+          <t>5,132,288.46 VND</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/WssAAOSwV8Bl~cD3/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/WC8AAOSwdCdiF3qH/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MSI Bravo 15 Gaming Laptop 15.6" 144Hz RTX 4060 Ryzen 9 7940HS 16GB DDR5 1TB SSD</t>
+          <t>Windows 11 Laptop Dell Latitude HD Intel Core i5 8th Gen 8GB 256GB SSD Warranty</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>25,256,153.85 VND</t>
+          <t>4,966,399.65 VND</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/yD8AAOSwMnNlw2te/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/VRYAAOSwv1tmkTfS/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Stone Cloudbook C10CA 14" Celeron 64GB 4GB Full HD Cheap ChromeBook Laptop B</t>
+          <t>14" Dell Gaming Laptop PC: Intel i7 Quad Core! 32GB RAM! 512GB SSD! Windows 11!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,664,654.38 VND</t>
+          <t>8,973,076.92 VND</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/YRUAAOSwJ11mH-2F/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/dvYAAOSwikFmdFE-/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CHEAP FAST Laptop DELL Quad Core 2.6GHZ Windows 10 SSD 4K HDMI WIFI WEBCAM</t>
+          <t>Dell Precision M6800 17.3” Laptop PC Core i7 16GB RAM 256GB SSD Windows 10 WiFi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2,664,179.76 VND</t>
+          <t>6,410,000.00 VND</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/0XcAAOSwwF5kApuD/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/JeMAAOSwzH5mmFNX/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HP Dell Lenovo Laptop i3 i5 iCore CPU 8GB RAM 128GB SSD Windows 10 NO WEBCAM</t>
+          <t>15.6" Dell Latitude Laptop PC: Intel i5 Quad Core! 32GB RAM! 1TB SSD! Windows 11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2,630,873.35 VND</t>
+          <t>9,229,487.18 VND</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/wM8AAOSwDC5jgMO3/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/kSAAAOSwfF9mmSM7/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SUPER FAST KALI LINUX LAPTOP INTEL CORE I5 16GB RAM 1TB HDD SSD WEBCAM WARRANTY</t>
+          <t>Windows 11 Laptop Dell Latitude HD Intel Core i5 6th Gen 8GB 256GB SSD Warranty</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3,996,436.17 VND to 7,660,141.29 VND</t>
+          <t>4,304,168.88 VND</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Pv0AAOSwcStkU7vO/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/uCcAAOSwx-pmkTPg/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lenovo MIIX 320 -10ICR TABLET ONLY Atom x5 Z8350 4GB RAM  64GB - Grade A</t>
+          <t>Dell Latitude 5500 Laptop PC Intel Core i5 4.10GHz 64GB RAM 4TB SSD Win 11 Pro</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1,498,455.40 VND</t>
+          <t>8,589,743.59 VND to 19,923,076.92 VND</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/NGcAAOSw8I9mAZwD/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/grcAAOSwWFVmIUYR/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cheap Fast Gaming Laptop RYZEN 5 16GB RAM 256GB SSD 13.3" FHD Win11 Vega 8 GPU</t>
+          <t>Dell 15" Laptop Computer PC i5 11th Gen, up to 64GB RAM 2TB SSD Windows 10 or 11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7,627,167.95 VND</t>
+          <t>8,692,307.69 VND to 21,000,000.00 VND</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/UkkAAOSw4d5mgvTa/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/PXcAAOSwXYdmn0M5/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GOLD LENOVO T470 FAST LAPTOP CORE i5 16GB RAM 512GB SSD WINDOWS 10/11 14" HD</t>
+          <t>Acer Aspire 3 15.6" Laptop Intel Core i5-1135G7 2.40GHz 12GB RAM 512GB SSD W11H</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5,328,692.58 VND to 10,324,654.12 VND</t>
+          <t>6,922,820.51 VND</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VU0AAOSwbN1lCaxI/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/3hMAAOSwIWZl4kHP/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sleek Gaming Laptop Fast RYZEN 5 32GB RAM 1TB SSD 13.3" FHD Win11 Vega 8 GPU PC</t>
+          <t>Lenovo ThinkPad 14" HD Laptop PC Core i5 8GB RAM 128GB SSD Windows 10 WiFi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7,294,103.85 VND to 10,957,808.97 VND</t>
+          <t>3,589,487.18 VND</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/E~gAAOSwsO9mJCIc/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/9xEAAOSwHG9mnzLl/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dell Latitude 3190 Laptop, 11.6" HD Screen, Celeron 4120, 4GB RAM, 64GB eMMC</t>
+          <t>Dell Chromebook 11.6" Laptop Computer Intel Celeron 4GB Ram 16GB SSD Chrome OS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3,993,438.59 VND</t>
+          <t>1,281,794.87 VND</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/UMkAAOSw0vJmdW1K/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/E24AAOSwUmFmDG6K/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Windows 11 Laptop HP EliteBook 1040 G5 X360 Touch Core i5-8350U 8GB 256GB SSD</t>
+          <t>Acer Aspire 3 15.6" Laptop Intel Core i3-N305 1.80 GHz 8 GB RAM 128GB SSD W11H S</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8,659,333.60 VND</t>
+          <t>5,127,948.72 VND</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/A-EAAOSwJhJmPeMZ/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/1EcAAOSwF5hlsq2y/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dell Latitude 7390 2-IN-1 Intel i7-8650U 16GB RAM 512 M.2 FHD Win 11 Pro-TouchSc</t>
+          <t>Microsoft Surface Laptop 3|Core i7-1065G7 1.30GHz |256 GB RAM |16 GB RAM|Touch</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7,896,923.08 VND</t>
+          <t>7,435,897.44 VND</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/0AYAAOSwPexmh4Hw/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/aHIAAOSwU6pmjsZ~/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ASUS TUF Dash F15 Gaming Laptop (Core i7 12650H/16GB D5/RTX 3060/512GB/144Hz/FHD</t>
+          <t>Lenovo ThinkPad T480s Core i5-8250U 32GB Ram 1TB SSD FHD Windows 11 Fast Laptop</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20,512,564.10 VND</t>
+          <t>6,621,976.58 VND to 8,939,784.27 VND</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/sdgAAOSw9NhkTNFZ/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/4sEAAOSwF~9minxS/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad T460 14' LCD i5 Laptop PC 16GB RAM 256GB SSD Win 11 pro Cam Wifi</t>
+          <t>Laptop HP EliteBook 830 G7 13.3" 10th Gen i7 16/32GB RAM 256/512GB SSD, VG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4,615,128.21 VND</t>
+          <t>8,907,003.85 VND to 10,893,696.15 VND</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/lVwAAOSwfP9lTBhp/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/nVAAAOSwRzhmdWN9/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HP EliteBook 830 G5 i5-8250U 8th Gen 8GB RAM 256GB NVMe Windows 11 Pro</t>
+          <t>CHEAP FAST Laptop DELL Quad Core 2.6GHZ Windows 10 SSD 4K HDMI WIFI WEBCAM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4,995,961.54 VND</t>
+          <t>2,648,591.96 VND</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nNsAAOSw5y5mQMUW/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/0XcAAOSwwF5kApuD/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lenovo ThinkBook 15 Gen 4 Notebook 15.6" FHD Intel Core i7-1255U 8GB RAM</t>
+          <t>Dell Precision M4800 15" Laptop PC Core i7 16GB RAM 500GB SSD Windows 10 Webcam</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13,204,871.79 VND</t>
+          <t>5,897,179.49 VND</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/whYAAOSwnTtmjMWA/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/meEAAOSw0AxmkgT6/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Custom Cheap Gaming Laptop Ryzen 5 32GB RAM 256GB SSD NVME 13.3 FHD Vega 8 Win11</t>
+          <t>CHUWI - 14.1" Laptop - Intel Celeron 2.8GH- 6GB Memory - 128GB SSD - HDMI Silver</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7,627,167.95 VND to 9,292,488.46 VND</t>
+          <t>3,692,051.28 VND</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/66QAAOSw7M1mhR3w/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/zfwAAOSwFflmC-Nt/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LENOVO i7 GAMING LAPTOP NVIDIA M1000M 32GB RAM 512GB SSD WINDOWS 10/11 FHD 15.6"</t>
+          <t>HP 250 G9 15.6  Full HD IPS Intel Core i5-1235U 16GB RAM 512GB SSD Notebook Dark</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9,658,525.91 VND to 12,323,038.73 VND</t>
+          <t>9,999,743.59 VND</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/mr8AAOSwTOFkfb7H/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/onkAAOSwwlNmb8t9/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dell Latitude 5400 Chromebook 14" FHD i5-8265U 8GB RAM 128GB SSD Chrome OS</t>
+          <t>CHUWI 14.1'' Laptop Computer PC Windows 11 Home PC 2.7GHz 6GB 128GB HD WIFI</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4,974,358.97 VND</t>
+          <t>3,350,000.00 VND</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/QQgAAOSw~7Fl~b5n/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/OuIAAOSwUKhl7lB5/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024 HP - 14" Laptop Computers - Intel Pentium Silver -UP to 64GB RAM, 2TB SSD </t>
+          <t>HP 15 Laptop 15.6" HD Pentium Quad-Core N200 8GB 128GB SSD Webcam Win11 Home Red</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5,538,205.13 VND to 13,589,487.18 VND</t>
+          <t>4,796,410.26 VND</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/GY8AAOSwLRhmejZ6/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/RlsAAOSwF4dmZymY/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dell Latitude 5580 Laptop i7 7820HQ 2.90GHZ 15.6" HD 16GB 256GB M.2 Windows 11</t>
+          <t>Cheap Fast Dual Core Windows 10 Laptop 4GB 240GB WIFI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4,486,923.08 VND</t>
+          <t>2,350,588.12 VND to 2,979,707.35 VND</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/36UAAOSwbT1mRpT4/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/Ip4AAOSwDXJjSULp/s-l140.jpg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Laptop HP EliteBook 840 G8 14in FHD i5-1145G7 16GB RAM 512GB SSD, G</t>
+          <t>Dell Latitude Laptop Core i7 11th Gen 32GB Ram 1TB SSD Cheap Windows 11 Laptop</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12,489,903.85 VND</t>
+          <t>4,801,173.08 VND to 18,873,576.92 VND</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/uj8AAOSwhFhmeqqg/s-l140.jpg</t>
+          <t>https://i.ebayimg.com/images/g/9FoAAOSwMfFmnm~c/s-l140.jpg</t>
         </is>
       </c>
     </row>
